--- a/medicine/Enfance/Ricardo_Montserrat/Ricardo_Montserrat.xlsx
+++ b/medicine/Enfance/Ricardo_Montserrat/Ricardo_Montserrat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ricardo Montserrat, né le 12 avril 1954 à Saint-Brieuc[1] (Côtes-du-Nord) et mort le 17 octobre 2020[2] à Concepción[3], est un artiste engagé[4], romancier, nouvelliste, dramaturge, essayiste et traducteur français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ricardo Montserrat, né le 12 avril 1954 à Saint-Brieuc (Côtes-du-Nord) et mort le 17 octobre 2020 à Concepción, est un artiste engagé, romancier, nouvelliste, dramaturge, essayiste et traducteur français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né en 1954 de l’exil en Bretagne de parents antifascistes catalans « chassés par le régime franquiste »[5], Ricardo Montserrat trouve très tôt dans le théâtre un espace où concilier engagement et liberté.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en 1954 de l’exil en Bretagne de parents antifascistes catalans « chassés par le régime franquiste », Ricardo Montserrat trouve très tôt dans le théâtre un espace où concilier engagement et liberté.
 Au Chili, sous les années Pinochet, il s’engage contre la « cultura de la muerte », crée, met en scène, écrit, édite ou produit une quarantaine d’œuvres qui sont autant de croche-pieds à la dictature.
 De retour en France, en 1992, il se met au service des exclus de la dictature économique et poursuit l’écriture de son œuvre personnelle : romans, théâtre, scénarios pour le cinéma. Il met en chantier des ateliers de création littéraire et dramatique. Entre autres : 
 Zone mortuaire, un roman policier paru dans la Série noire, écrit en collaboration avec des chômeurs de Lorient,
@@ -523,11 +537,11 @@
 en Corse, avec Robin Renucci et l’ARIA, des œuvres bilingues pour le cinéma et le théâtre,
 Enfances et fantômes, un ouvrage de littérature d'enfance et de jeunesse (Syros-jeunesse) à La Source, dans l’Eure, avec les peintres Gérard Garouste et Olivier Masmonteil, des jeunes de la DDASS et leurs parents,
 No Woman's Land, roman-film des exils, en Belgique, avec des demandeurs d’asile et le Miroir vagabond.
-En 1998, il signe No name, un roman policier historique qui « met en scène le dictateur Pinochet et raconte l'histoire d'une jeune policière chilienne, spécialiste de l'informatique, à la recherche de son père, ancien ministre de Salvador Allende »[5].
+En 1998, il signe No name, un roman policier historique qui « met en scène le dictateur Pinochet et raconte l'histoire d'une jeune policière chilienne, spécialiste de l'informatique, à la recherche de son père, ancien ministre de Salvador Allende ».
 Depuis 2006, il travaille sur la mémoire vivante : le Front populaire (36, pas mort !), sur l’Espagne : Ahora y siempre, Porque te vas, Une guerre sans fin, Mon père ma guerre ; sur l’extrême-violence : Naz, Plus belle la mort ; sur la petite histoire dans l’Histoire : Café de la Paix et sur l’utopie du bonheur : L’Amour fou, Entre la mort. 
 En 2010, il lance avec Colères du Présent, une collection de romans populaires qui raconte l'histoire sombre du Nord-Pas-de-Calais, telle que l'ont vécue les mineurs marocains (Mauvaise Mine), les SDF (Serial Mineur), les éducateurs (Violences sur mineurs), les cégétistes de Béthune (Cha sin l'gaz), etc. Tous sont publiés en feuilleton par la presse régionale : La Voix du Nord, L'Avenir de l'Artois, Nord-Eclair et sont ensuite édités aux éditions Baleine et bientôt scénarisés pour France Télévisions.
 Depuis 2010, au théâtre, il développe une écriture multimédia pour des metteurs en scène et des compagnies travaillant sur le lien théâtre-cinéma, image numérique et arts plastiques, avec la compagnie Diagonale à Lille : Terror torero, Mary's Baby ; le Groupe artistique Alice, à Nantes : Le jour où nous avons cessé d’avoir peur, Série B ; Tro-héol à Quimper : Mon père, ma guerre ; HDVZ et Les Tréteaux de France, à Roubaix : Qui Redoute la parole, Qui commande ici, avec les employés de La Redoute, Attore Acteur, Payasadas, Quelle clownerie la guerre !…
-Il a été parrain du festival "Passeurs de lumière" en 2010[6].
+Il a été parrain du festival "Passeurs de lumière" en 2010.
 Associé à la SACD, la SCAM, la SGDL, la SOFIA, la Charte des Auteurs, les E.A.T. et 813.
 </t>
         </is>
@@ -559,15 +573,57 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Les Périlleuses Mémoires de Tito Perrochet, L’Harmattan, 1992
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Périlleuses Mémoires de Tito Perrochet, L’Harmattan, 1992
 Là-bas, la haine, L’Harmattan, 1993
 Aziliz, ou les Filleuls de l'Ankou, L’Atalante, 1996
 No Name, Le Mercure de France, 1999
-En E Enkou, Entre la Mort, roman fantastique, e-book, téléchargeable sur Publie-Net, 2009
-Romans écrits en collaboration
-Série Les aventures de Nour et Norbert
-Violences sur mineur, avec l'atelier de création populaire de l'AFERTES, feuilleton L'Avenir de l'Artois, éditions Baleine, 2011
+En E Enkou, Entre la Mort, roman fantastique, e-book, téléchargeable sur Publie-Net, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ricardo_Montserrat</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ricardo_Montserrat</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans écrits en collaboration</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Les aventures de Nour et Norbert</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Violences sur mineur, avec l'atelier de création populaire de l'AFERTES, feuilleton L'Avenir de l'Artois, éditions Baleine, 2011
 Cha sin l'gaz, avec la CGT du Béthunois, Colères du Présent, feuilleton La Voix du Nord, éditions Baleine, 2011
 Mauvaise Mine avec l'Association des Mineurs Marocains du Nord. Colères du Présent. éd. Ravet-Anceau, éditions Baleine, 2011
 Les Mains d'or avec les hôtes de l'hébergement d'urgence Le Phare, Béthune. Colères du Présent. Feuilleton dans L'Avenir de l'Artois, réédition, éditions Baleine sous le titre : Serial mineur, 2011
@@ -575,9 +631,47 @@
 Terrain miné, une aventure de Nour, avec le CPS de Harnes, Sallaumines, Méricourt, éd. Baleine, 2013
 Assabr, (Résistez!), une aventure de Nour, avec l'AMMN et la CDT Ouarzazate, Fête de l'Huma, bilingue arabe-français, éd. Baleine, 2013
 Ne me coupe pas, une aventure électrique et gazière de Nour et Norbert, avec la CMCAS Nord-Pas-de-Calais, éd. Baleine, 2014
-Montez de la mine, une aventure de Nour, avec l'AMMN et la CDT Ouarzazate, éd. Baleine-Colères du Présent, 2014
-Autres romans écrits en collaboration
-L'Enfant nomade, bilingue arabe-français, avec des enfants de St-Brieuc et Chenini-Gabès (Tunisie), L’Harmattan, 1994
+Montez de la mine, une aventure de Nour, avec l'AMMN et la CDT Ouarzazate, éd. Baleine-Colères du Présent, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ricardo_Montserrat</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ricardo_Montserrat</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans écrits en collaboration</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans écrits en collaboration</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Enfant nomade, bilingue arabe-français, avec des enfants de St-Brieuc et Chenini-Gabès (Tunisie), L’Harmattan, 1994
 Zone mortuaire, polar, avec les KELT, chômeurs de Lorient, Gallimard, coll. « Série Noire » no 2455, 1997
 Le Mouchoir dans la plaie, polar, ateliers itinérants des Mauges, Siloé, 1998
 Pomme d'amour, feuilleton, avec Koch'Lutunn, rmistes ruraux, Ouest-France 98, Ramsay, 1999
@@ -594,9 +688,43 @@
 Le Petit et le Géant, Coma, La 1re Fois, avec l’OFFIPEJ-HARNES, ESAD Amiens-Colères du Présent, éd. en ligne, 2009
 La Belle au bois d'ébène, avec les hôtes de l'hébergement d'urgence Le Phare, Béthune 2011. Feuilleton L'Avenir de l'Artois, éd. Ravet-Anceau, 2010
 À Fleur de pierre, avec l'atelier Saga du Peuple des Carrières, feuilleton Le Petit Bleu des Côtes d'Armor ; réédition éd. Apogée, 2011
-Siklone dedan, siklone déor, avec le collectif Siklone, éditions Ars desTerres Créoles - La Réunion, 2013
-Nouvelles et contes
-Rêves de travail, nouvelles du monde du travail, avec les C.E. de Nantes, L’Harmattan, 1995
+Siklone dedan, siklone déor, avec le collectif Siklone, éditions Ars desTerres Créoles - La Réunion, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ricardo_Montserrat</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ricardo_Montserrat</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles et contes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Rêves de travail, nouvelles du monde du travail, avec les C.E. de Nantes, L’Harmattan, 1995
 Pâté de gangster, éd. AGC, Groix, 1997
 Le Livre des livres, conte, écrit en collaboration avec les habitants de Fontenoy-le-Château, FOL Vosges
 Les Deux Anges et le Titanic, éd. AGC, Groix, 1998
@@ -617,9 +745,43 @@
 Nordpasdepapiers, Deux fleurs bleues, contes anderseniens, revues Babel, Témoignage Chrétien, automne-hiver, 2009
 Decimas, in Franco La Muerte, recueil de nouvelles, Arcane 17, 2015
 Nutopie, collectif d’auteurs jeunesse, éditions Ligue de l’Enseignement - Pourquoi pas, 2016.
-Nosotros, in Brigadistes, collectif d’auteurs de polars, D. Daenincks, Cali… Le Caïman, 2016
-Théâtre
-1992 : Tapaldroa, les droits de l’enfant, Compagnie Rémy Chapelain, Loudéac.
+Nosotros, in Brigadistes, collectif d’auteurs de polars, D. Daenincks, Cali… Le Caïman, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ricardo_Montserrat</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ricardo_Montserrat</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1992 : Tapaldroa, les droits de l’enfant, Compagnie Rémy Chapelain, Loudéac.
 1993 : Noël, la nuit est finie, Théâtre du Miroir, musical, Paris.
 1995 : Résidences, avec de jeunes comédiens de l’A4-Tréguier, Compagnie Rémy Chapelain, Brest.
 1996 : Je me suis tue, monologue, mise en scène Jean-Claude Drouot, L’Aire Libre, Rennes, éditions Théâtres en Bretagne.
@@ -683,9 +845,43 @@
 Série B, un polar dans la ville, avec le Groupe artistique Alice, à  Barbezieux, Chalonnes, Vivoin, Nantes.
 Payasadas, quelle clownerie la guerre !, mise en scène Catie Alias, Cie Attore, Avignon - Entraigues sur Sorgues, Avignon.
 Criminels, avec Yannick Pasgrimaud, musique François Hégron, pour la CGT Construction, Place du Châtelet, Paris 16.
-Youssef, Mariam et Yessuah, demandeurs d'asile, oratorio, Daniel Tosi, Gérard Garcin, œuvre pour chœur d’enfants et comédiens, Orchestre Perpignan Méditerranée, dans le cadre du Festival de musique sacrée de Perpignan.
-Traductions et adaptations pour le théâtre, la musique et la danse
- Montezuma à Venise, livret pour l’opéra, d’après Concierto Barroco du Cubain Alejo Carpentier, avec Gérard Garcin - en production, Opéra d'Avignon, (2017)
+Youssef, Mariam et Yessuah, demandeurs d'asile, oratorio, Daniel Tosi, Gérard Garcin, œuvre pour chœur d’enfants et comédiens, Orchestre Perpignan Méditerranée, dans le cadre du Festival de musique sacrée de Perpignan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ricardo_Montserrat</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ricardo_Montserrat</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Traductions et adaptations pour le théâtre, la musique et la danse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Montezuma à Venise, livret pour l’opéra, d’après Concierto Barroco du Cubain Alejo Carpentier, avec Gérard Garcin - en production, Opéra d'Avignon, (2017)
 Caligula 41, d'après Albert Camus, Cie L'Unita teatrale, msc. J.P. Lanfranchi, Cie L'Unita Teatrale et le groupe polyphonique Tavagna (spectacle bilingue), Centre Culturel Anima, Migliacciaru, 2014
 1. I:)CITY, ou la Dictature de la vitesse, ballet, chorégraphie Olivier GERMSER, Cie TangoSumo, Morlaix, 2012.
 Tu fais rougir la lune, d'après Federico Garcia Lorca, théâtre musical, avec Carol Delgado et Dominique Molard, Création L'Océanis, Plœmeur, 2011.
@@ -699,20 +895,122 @@
 Tio Loco, de l’Argentin Roberto Cossa, Ed. Presses universitaires du Mirail, 2000
 Putamuerte, d’après Diatribe contre un homme assis du Colombien Gabriel García Márquez, 1999
 Les Épices de la passion, d’après Como agua para chocolate, roman de la Mexicaine Laura Esquivel, 1998
-La Carte d'Amsterdam, d’après El mapa de Amsterdam, roman-poème du Chilien Enrique Giordano, 1997
-Radio
-2006 :
+La Carte d'Amsterdam, d’après El mapa de Amsterdam, roman-poème du Chilien Enrique Giordano, 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ricardo_Montserrat</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ricardo_Montserrat</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Radio</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2006 :
 Les Enfants de 36, avec les abonnés de la bibliothèque Louis Aragon de Fives, Radio Campus, Lille
 Niklazermi, polar, avec la PJJ, Radio PFM, réal. Nicolas Buignet, Ed. Colères du Présent, Arras
 2000 :
 Tombe la neige, avec les Kedall, France Culture, réal. Claude Guerre, Châteauneuf du Faou
 La Blouse rouge (in La Femme jetable), France Culture, réal. Jacques Taroni, Le Havre
-Planches de salut, France Culture, réal. Jean Couturier, festival In Avignon, Éditions HB
-Poésie
-Espace vécu, poèmes, photos de David Balicki, MOUC Val de Seine, 1998
-Ville rouge, roman-poème, éd. Sansonnet, distr. Coop Breizh, 2002
-Essais
-Luis Guiu, in Le mal absolu, éditions Amis de Louis Guilloux, St-Brieuc, 1996.
+Planches de salut, France Culture, réal. Jean Couturier, festival In Avignon, Éditions HB</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ricardo_Montserrat</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ricardo_Montserrat</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Espace vécu, poèmes, photos de David Balicki, MOUC Val de Seine, 1998
+Ville rouge, roman-poème, éd. Sansonnet, distr. Coop Breizh, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ricardo_Montserrat</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ricardo_Montserrat</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Luis Guiu, in Le mal absolu, éditions Amis de Louis Guilloux, St-Brieuc, 1996.
 Chemins vicinaux et voies de traverse, Ed. Mission Locale du Layon, 1999
 À corps écrits, in revue Autrement, “L’art pour quoi faire ?”, no 195, 1999, rééd. 2001
 Le Silence et la Peur, in Sans moi, t’es rien, collectif antiraciste, éditions Mango, 2000
@@ -725,34 +1023,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ricardo_Montserrat</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ricardo_Montserrat</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ricardo_Montserrat</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ricardo_Montserrat</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En tant que scénariste
-2000 : Sauve-moi, film français réalisé par Christian Vincent, scénario de Ricardo Montserrat tiré de son roman Ne crie pas, avec Roschdy Zem, Rona Hartner et Karole Rocher
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>En tant que scénariste</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2000 : Sauve-moi, film français réalisé par Christian Vincent, scénario de Ricardo Montserrat tiré de son roman Ne crie pas, avec Roschdy Zem, Rona Hartner et Karole Rocher
 2002 : Va, petite !, film français réalisé par Alain Guesnier, scénario original de Ricardo Montserrat en collaboration avec Valérie Duval et Alain Guesnier, avec Laurent Lucas, Julie Julien, Marianne Basler et Jean-Claude Drouot
 2007 : Sempre vivu !, film français réalisé par Robin Renucci, scénario original de Ricardo Montserrat en collaboration, avec René Jauneau, Angèle Massei et Wladimir Yordanoff
 2007 : Una guerra sin fin, docu-fiction, avec Michel Dupuy, Films du Moment, FR3 Ouest, avec Jean Le Scouarnec.
